--- a/tablas/mobile-paramXGB.xlsx
+++ b/tablas/mobile-paramXGB.xlsx
@@ -135,40 +135,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175.0</v>
+        <v>454.0</v>
       </c>
       <c r="C2" t="n">
-        <v>329.0</v>
+        <v>81.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.0</v>
+        <v>1419.0</v>
       </c>
       <c r="E2" t="n">
-        <v>325.0</v>
+        <v>46.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.8485981308411215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35</v>
+        <v>0.908</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7806666666666666</v>
+        <v>0.946</v>
       </c>
       <c r="I2" t="n">
-        <v>0.348605577689243</v>
+        <v>0.8772946859903381</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3205</v>
+        <v>0.712</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09400000000000001</v>
+        <v>0.616</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5227172594561359</v>
+        <v>0.9268052654144774</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6186266666666674</v>
+        <v>0.9794946666666664</v>
       </c>
     </row>
     <row r="3">
@@ -178,40 +178,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.0</v>
+        <v>451.0</v>
       </c>
       <c r="C3" t="n">
-        <v>338.0</v>
+        <v>67.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1162.0</v>
+        <v>1433.0</v>
       </c>
       <c r="E3" t="n">
-        <v>324.0</v>
+        <v>49.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3424124513618677</v>
+        <v>0.8706563706563707</v>
       </c>
       <c r="G3" t="n">
-        <v>0.352</v>
+        <v>0.902</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7746666666666666</v>
+        <v>0.9553333333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>0.34714003944773175</v>
+        <v>0.8860510805500982</v>
       </c>
       <c r="J3" t="n">
-        <v>0.32</v>
+        <v>0.7385</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.6513333333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5221902590691123</v>
+        <v>0.9282837209962624</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6240293333333322</v>
+        <v>0.9839706666666669</v>
       </c>
     </row>
     <row r="4">
@@ -221,40 +221,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.0</v>
+        <v>451.0</v>
       </c>
       <c r="C4" t="n">
-        <v>334.0</v>
+        <v>54.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1166.0</v>
+        <v>1446.0</v>
       </c>
       <c r="E4" t="n">
-        <v>329.0</v>
+        <v>49.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.33861386138613864</v>
+        <v>0.8930693069306931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.342</v>
+        <v>0.902</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7773333333333333</v>
+        <v>0.964</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3402985074626866</v>
+        <v>0.8975124378109453</v>
       </c>
       <c r="J4" t="n">
-        <v>0.322</v>
+        <v>0.7575</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09600000000000002</v>
+        <v>0.6766666666666666</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5156044995924687</v>
+        <v>0.9324848524238879</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6229960000000007</v>
+        <v>0.9864066666666661</v>
       </c>
     </row>
     <row r="5">
@@ -264,40 +264,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179.0</v>
+        <v>452.0</v>
       </c>
       <c r="C5" t="n">
-        <v>333.0</v>
+        <v>42.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.0</v>
+        <v>1458.0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.0</v>
+        <v>48.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.349609375</v>
+        <v>0.9149797570850202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.358</v>
+        <v>0.904</v>
       </c>
       <c r="H5" t="n">
-        <v>0.778</v>
+        <v>0.972</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3537549407114624</v>
+        <v>0.909456740442656</v>
       </c>
       <c r="J5" t="n">
-        <v>0.319</v>
+        <v>0.787</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09200000000000001</v>
+        <v>0.7160000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5277537304463134</v>
+        <v>0.9373835927729907</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6241173333333349</v>
+        <v>0.9898320000000002</v>
       </c>
     </row>
     <row r="6">
@@ -307,40 +307,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174.0</v>
+        <v>455.0</v>
       </c>
       <c r="C6" t="n">
-        <v>343.0</v>
+        <v>41.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1157.0</v>
+        <v>1459.0</v>
       </c>
       <c r="E6" t="n">
-        <v>326.0</v>
+        <v>45.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3365570599613153</v>
+        <v>0.9173387096774194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.348</v>
+        <v>0.91</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7713333333333333</v>
+        <v>0.9726666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.34218289085545717</v>
+        <v>0.9136546184738956</v>
       </c>
       <c r="J6" t="n">
-        <v>0.32</v>
+        <v>0.801</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.7346666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5180965161048663</v>
+        <v>0.9408117062763764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6235720000000001</v>
+        <v>0.9920466666666672</v>
       </c>
     </row>
   </sheetData>
